--- a/src/analysis_examples/circadb/results_jtk/cosinor_10399478_lpin1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10399478_lpin1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20535087425438328, 0.341414184604374]</t>
+          <t>[0.20642813370834362, 0.34033692515041364]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.06238955807936e-08</v>
+        <v>3.126363856686964e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.06238955807936e-08</v>
+        <v>3.126363856686964e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7170001251436169</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3826813293246782, 0.4536300928985855]</t>
+          <t>[0.38266398440626664, 0.45364743781699707]</t>
         </is>
       </c>
       <c r="U2" t="n">
